--- a/output/xlsx/UC010 - Analisar Prestação de Contas--Complete-.xlsx
+++ b/output/xlsx/UC010 - Analisar Prestação de Contas--Complete-.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Version: </t>
   </si>
   <si>
-    <t>0.1</t>
+    <t>1.0</t>
   </si>
   <si>
     <t>Suite Type:</t>

--- a/output/xlsx/UC010 - Analisar Prestação de Contas--Complete-.xlsx
+++ b/output/xlsx/UC010 - Analisar Prestação de Contas--Complete-.xlsx
@@ -107,10 +107,10 @@
     <t>TC2</t>
   </si>
   <si>
-    <t>SYSTEM Exibe os detalhes relativos àquela prestação de contas (dados básicos da solicitação e documentos anexos); Exibe o histórico da tramitação da prestação de contas.</t>
-  </si>
-  <si>
-    <t>Chefe Clica para analisar a prestação de contas.</t>
+    <t>SYSTEM Exibe os detalhes relativos àquela prestação de contas (nome do beneficiário, dados básicos da solicitação e documentos anexos); Exibe o histórico da tramitação da prestação de contas.</t>
+  </si>
+  <si>
+    <t>Chefe Verifica o histório da tramitação da prestação de contas e clica para analisar a prestação de contas.</t>
   </si>
   <si>
     <t>SYSTEM Exibe a tela para prestação de contas</t>

--- a/output/xlsx/UC010 - Analisar Prestação de Contas--Complete-.xlsx
+++ b/output/xlsx/UC010 - Analisar Prestação de Contas--Complete-.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Version: </t>
   </si>
   <si>
-    <t>1.0</t>
+    <t>1.2.5</t>
   </si>
   <si>
     <t>Suite Type:</t>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">Precondition: </t>
   </si>
   <si>
-    <t>O usuario devidamente autenticado e na tela inicial do sistema</t>
+    <t>O usuário devidamente autenticado e na tela inicial do sistema.</t>
   </si>
   <si>
     <t>#</t>
@@ -110,10 +110,10 @@
     <t>SYSTEM Exibe os detalhes relativos àquela prestação de contas (nome do beneficiário, dados básicos da solicitação e documentos anexos); Exibe o histórico da tramitação da prestação de contas.</t>
   </si>
   <si>
-    <t>Chefe Verifica o histório da tramitação da prestação de contas e clica para analisar a prestação de contas.</t>
-  </si>
-  <si>
-    <t>SYSTEM Exibe a tela para prestação de contas</t>
+    <t>Chefe Verifica o histórico da tramitação da prestação de contas e clica para analisar a prestação de contas.</t>
+  </si>
+  <si>
+    <t>SYSTEM Exibe a tela para prestação de contas.</t>
   </si>
   <si>
     <t>Chefe Informa o parecer da prestação de contas.</t>
@@ -125,7 +125,7 @@
     <t>Chefe Clica para detalhar a solicitação relacionada a uma determinada prestação de contas.</t>
   </si>
   <si>
-    <t>SYSTEM Exibe a tela de Detalhar Diárias</t>
+    <t>SYSTEM Exibe a tela de Detalhar Diárias.</t>
   </si>
   <si>
     <t>TC3</t>
@@ -143,7 +143,7 @@
     <t>Chefe Confirma o parecer dado (confirma operação).</t>
   </si>
   <si>
-    <t>SYSTEM Identifica que campos obrigatórios do parecer/análise não foram devidamente preenchidos Exibe mensagem de erro (MSG203 - Campos obrigatórios) para o usuário.</t>
+    <t>SYSTEM Identifica que campos obrigatórios do parecer/análise não foram devidamente preenchidos; Exibe mensagem de erro (MSG203 - Campos obrigatórios) para o usuário.</t>
   </si>
   <si>
     <t>TC5</t>
